--- a/_resource/excel/table/D-道具-道具背包-(框架定义,后端填写).xlsx
+++ b/_resource/excel/table/D-道具-道具背包-(框架定义,后端填写).xlsx
@@ -85,7 +85,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D7" authorId="0" shapeId="0">
+    <comment ref="E7" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -114,7 +114,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="47">
   <si>
     <t>cpp</t>
     <phoneticPr fontId="5" type="noConversion"/>
@@ -274,6 +274,22 @@
   </si>
   <si>
     <t>MaxCount</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>IndexName</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>主索引的名字</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>index</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>string</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -877,34 +893,34 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M9"/>
+  <dimension ref="A1:N9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="8" topLeftCell="B9" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="D7" sqref="D7"/>
+      <selection pane="bottomRight" activeCell="E1" sqref="E1:E1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="16.125" style="17" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11.625" style="18" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.625" style="18" customWidth="1"/>
-    <col min="4" max="4" width="14" style="18" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.25" style="18" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.875" style="18" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="27.25" style="18" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="23.875" style="18" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="20.5" style="18" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="22.25" style="18" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="13.875" style="18" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="17.25" style="18" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="13.875" style="18" bestFit="1" customWidth="1"/>
-    <col min="14" max="16384" width="9" style="18"/>
+    <col min="3" max="4" width="11.625" style="18" customWidth="1"/>
+    <col min="5" max="5" width="14" style="18" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.25" style="18" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.875" style="18" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="27.25" style="18" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="23.875" style="18" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="20.5" style="18" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="22.25" style="18" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13.875" style="18" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="17.25" style="18" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="13.875" style="18" bestFit="1" customWidth="1"/>
+    <col min="15" max="16384" width="9" style="18"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="1" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:14" s="1" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>16</v>
       </c>
@@ -915,7 +931,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A2" s="2">
         <v>0</v>
       </c>
@@ -955,8 +971,11 @@
       <c r="M2" s="3">
         <v>1</v>
       </c>
+      <c r="N2" s="3">
+        <v>1</v>
+      </c>
     </row>
-    <row r="3" spans="1:13" s="4" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:14" s="4" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
       <c r="A3" s="4" t="s">
         <v>0</v>
       </c>
@@ -967,25 +986,25 @@
         <v>40</v>
       </c>
       <c r="D3" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G3" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="E3" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="F3" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="G3" s="4" t="s">
+      <c r="H3" s="4" t="s">
         <v>30</v>
-      </c>
-      <c r="H3" s="4" t="s">
-        <v>31</v>
       </c>
       <c r="I3" s="4" t="s">
         <v>31</v>
       </c>
       <c r="J3" s="4" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="K3" s="4" t="s">
         <v>29</v>
@@ -996,18 +1015,21 @@
       <c r="M3" s="4" t="s">
         <v>29</v>
       </c>
+      <c r="N3" s="4" t="s">
+        <v>29</v>
+      </c>
     </row>
-    <row r="4" spans="1:13" s="5" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:14" s="5" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
       <c r="A4" s="5" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:13" s="5" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:14" s="5" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
       <c r="A5" s="6" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="1:13" s="9" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:14" s="9" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A6" s="7" t="s">
         <v>18</v>
       </c>
@@ -1018,37 +1040,40 @@
         <v>41</v>
       </c>
       <c r="D6" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="E6" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="E6" s="8" t="s">
+      <c r="F6" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="F6" s="8" t="s">
+      <c r="G6" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="G6" s="8" t="s">
+      <c r="H6" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="H6" s="8" t="s">
+      <c r="I6" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="I6" s="8" t="s">
+      <c r="J6" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="J6" s="8" t="s">
+      <c r="K6" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="K6" s="8" t="s">
+      <c r="L6" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="L6" s="8" t="s">
+      <c r="M6" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="M6" s="8" t="s">
+      <c r="N6" s="8" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:13" s="13" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:14" s="13" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A7" s="10" t="s">
         <v>19</v>
       </c>
@@ -1059,37 +1084,40 @@
         <v>42</v>
       </c>
       <c r="D7" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="E7" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="E7" s="11" t="s">
+      <c r="F7" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="F7" s="11" t="s">
+      <c r="G7" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="G7" s="11" t="s">
+      <c r="H7" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="H7" s="11" t="s">
+      <c r="I7" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="I7" s="12" t="s">
+      <c r="J7" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="J7" s="11" t="s">
+      <c r="K7" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="K7" s="11" t="s">
+      <c r="L7" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="L7" s="11" t="s">
+      <c r="M7" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="M7" s="11" t="s">
+      <c r="N7" s="11" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="8" spans="1:13" s="5" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A8" s="6"/>
       <c r="B8" s="14" t="s">
         <v>15</v>
@@ -1097,28 +1125,31 @@
       <c r="C8" s="14">
         <v>100</v>
       </c>
-      <c r="D8" s="15" t="s">
+      <c r="D8" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="E8" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="E8" s="15"/>
       <c r="F8" s="15"/>
       <c r="G8" s="15"/>
       <c r="H8" s="15"/>
       <c r="I8" s="15"/>
-      <c r="J8" s="15">
-        <v>1</v>
-      </c>
+      <c r="J8" s="15"/>
       <c r="K8" s="15">
         <v>1</v>
       </c>
-      <c r="L8" s="16">
+      <c r="L8" s="15">
+        <v>1</v>
+      </c>
+      <c r="M8" s="16">
         <v>0</v>
       </c>
-      <c r="M8" s="15">
+      <c r="N8" s="15">
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:13" s="5" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A9" s="6"/>
       <c r="B9" s="14" t="s">
         <v>10</v>
@@ -1126,24 +1157,27 @@
       <c r="C9" s="14">
         <v>100</v>
       </c>
-      <c r="D9" s="15" t="s">
+      <c r="D9" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="E9" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="E9" s="15"/>
       <c r="F9" s="15"/>
       <c r="G9" s="15"/>
       <c r="H9" s="15"/>
       <c r="I9" s="15"/>
-      <c r="J9" s="15">
-        <v>1</v>
-      </c>
+      <c r="J9" s="15"/>
       <c r="K9" s="15">
         <v>1</v>
       </c>
-      <c r="L9" s="16">
+      <c r="L9" s="15">
+        <v>1</v>
+      </c>
+      <c r="M9" s="16">
         <v>0</v>
       </c>
-      <c r="M9" s="15">
+      <c r="N9" s="15">
         <v>0</v>
       </c>
     </row>
